--- a/Inputs/Fidelity_United_Health_First/info.xlsx
+++ b/Inputs/Fidelity_United_Health_First/info.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Fidelity_United_Health_First</t>
   </si>
   <si>
-    <t xml:space="preserve">NE_Dubai/</t>
+    <t xml:space="preserve">NE_Dubai/AbuDhabi</t>
   </si>
   <si>
     <t xml:space="preserve">2025-06-01</t>
@@ -254,13 +254,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
@@ -292,7 +292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
